--- a/Testing Mindhub X Argentina Programa 4.0/Ejecucion de casos/PETSHOP Grupo 6-casos-escenarios-defectos.xlsx
+++ b/Testing Mindhub X Argentina Programa 4.0/Ejecucion de casos/PETSHOP Grupo 6-casos-escenarios-defectos.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carop\OneDrive\Escritorio\carpeta caro\portfolio testing\Testing Mindhub X Argentina Programa 4.0\Ejecucion de casos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0EBD3-864A-4F31-929E-5960EFAB4C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Carátula" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Casos de Pruebas" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Escenarios" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Matriz de defectos" sheetId="4" r:id="rId7"/>
+    <sheet name="Carátula" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos de Pruebas" sheetId="2" r:id="rId2"/>
+    <sheet name="Escenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Matriz de defectos" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="3" name="Z_AD37B2E4_7AFD_41A6_82F0_EDDAB192088C_.wvu.FilterData">'Matriz de defectos'!$B$14:$I$24</definedName>
+    <definedName name="Z_AD37B2E4_7AFD_41A6_82F0_EDDAB192088C_.wvu.FilterData" localSheetId="3" hidden="1">'Matriz de defectos'!$B$14:$I$24</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AD37B2E4-7AFD-41A6-82F0-EDDAB192088C}" name="Ordenar"/>
+    <customWorkbookView name="Ordenar" guid="{AD37B2E4-7AFD-41A6-82F0-EDDAB192088C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -63,26 +73,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>USUARIO</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (obligatorio. Alfanumérico entre 5 y 8 caracteres) , </t>
     </r>
@@ -90,26 +100,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">CLAVE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(la pida 2 veces) (obligatorio. Alfanumérico entre 3 y 6 caracteres). </t>
     </r>
@@ -117,26 +127,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>DIRECCIÓN COMPLETA</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (calle obligatoria, número obligatorio, piso y dptos.Opcionales, CP obligatorio, teléfono 
 obligatorio, estos últimos con las longitudes standard)</t>
@@ -148,26 +158,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>IDIOMA</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ofrecer Inglés, Español, Francés, Japonés). Obligatorio</t>
     </r>
@@ -175,26 +185,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>ANIMAL PREFERIDO</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (es el que debería aparecer como foto principal). Obligatorio.</t>
     </r>
@@ -243,23 +253,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Acceso al sistema</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>No estar registrado en el sitio</t>
     </r>
@@ -267,6 +280,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -280,9 +294,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -303,26 +318,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Debería dar un mensaje "registro exitoso"</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> y la imagen debería corresponder al perro.</t>
     </r>
@@ -340,19 +358,22 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>usuario</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -366,9 +387,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -385,19 +407,22 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>010210</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -411,9 +436,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -427,19 +453,22 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Usuario:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> usuario0011</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -453,9 +482,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -469,19 +499,22 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Usuario:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> usu1</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -495,9 +528,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -511,6 +545,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -518,13 +553,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>u1</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -537,14 +574,16 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.pets</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">hop.com
@@ -563,6 +602,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -570,13 +610,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>password012301</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -589,14 +631,16 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.pets</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>hop.com</t>
@@ -611,6 +655,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -618,13 +663,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1351</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -637,9 +684,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -653,6 +701,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -660,13 +709,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>pass</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -679,9 +730,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -696,6 +748,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -703,13 +756,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>pass01</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -717,13 +772,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>pass10</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -736,9 +793,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -755,6 +813,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Usuario: user01
@@ -768,16 +827,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -795,6 +856,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -803,13 +865,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">San Juan </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -821,9 +885,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -842,6 +907,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -851,13 +917,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>500050005000g</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -868,9 +936,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -878,34 +947,38 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>El sistema debería desplegar un error avisando que el</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"CP" es inválido</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.</t>
     </r>
@@ -919,6 +992,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -929,13 +1003,15 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>351123456h</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -945,9 +1021,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -955,26 +1032,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>El sistema debería desplegar un aviso de error avisando que el</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>"teléfono" es inválido.</t>
     </r>
@@ -992,6 +1072,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -1000,9 +1081,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -1028,6 +1110,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user03
@@ -1036,9 +1119,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -1060,6 +1144,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
@@ -1068,9 +1153,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -1092,6 +1178,7 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Usuario: admin1
@@ -1100,9 +1187,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>www.petshop.com</t>
     </r>
@@ -1117,18 +1205,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Debería dar un mensaje de "acceso de administrador
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>otorgado"</t>
     </r>
@@ -1165,25 +1255,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> URL: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://petstore.octoperf.com/actions/Catalog.action
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
 Contraseña: pass01
@@ -1193,25 +1283,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1.- Abrir explorador de Chrome
 2.- Ingresar la URL:  </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://petstore.octoperf.com/actions/Catalog.action</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 3.- Hacer click en botón "Sign-in"
@@ -1256,24 +1346,24 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://petstore.octoperf.com/actions/Catalog.action</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1282,44 +1372,44 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1.- Abrir explorador de Chrome 
 2.- Ingresar la URL:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri"/>
+      </rPr>
+      <t>https://petstore.octoperf.com/actions/Catalog.actio</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://petstore.octoperf.com/actions/Catalog.actio</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 
 3.- Hacer click en botón "Sign-in" 
@@ -1377,25 +1467,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://petstore.octoperf.com/actions/Catalog.action
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Usuario: user01
 Contraseña: pass01
@@ -1405,41 +1495,41 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1.- Abrir explorador de Chrome 
 2.- Ingresar la URL:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.octoperf.com/actions/Catalog.actio</t>
+    </r>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://petstore.octoperf.com/actions/Catalog.actio</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 
 3.- Hacer click en botón "Sign-in" 
@@ -1570,151 +1660,190 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="32">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1722,7 +1851,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1804,7 +1933,13 @@
     </fill>
   </fills>
   <borders count="11">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1818,6 +1953,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1826,14 +1962,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1842,14 +1984,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1861,32 +2009,44 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1896,303 +2056,257 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="84">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="25" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2382,23 +2496,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="113.38"/>
+    <col min="4" max="4" width="113.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="13.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2419,7 +2536,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" ht="17.399999999999999">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2442,7 +2559,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" ht="13.8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2465,7 +2582,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" ht="13.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2488,7 +2605,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" ht="13.8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2511,7 +2628,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" ht="13.8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2534,7 +2651,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" ht="13.8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2557,7 +2674,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" ht="13.8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2580,7 +2697,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" ht="13.8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2603,7 +2720,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" ht="13.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2624,7 +2741,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" ht="15.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2647,7 +2764,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" ht="15.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2670,7 +2787,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2693,7 +2810,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2716,11 +2833,11 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" ht="21.0" customHeight="1">
+    <row r="15" spans="1:19" ht="21" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="55" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1"/>
@@ -2739,11 +2856,11 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2760,11 +2877,11 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" ht="27.0" customHeight="1">
+    <row r="17" spans="1:19" ht="27" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1"/>
@@ -2783,7 +2900,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" ht="24.0" customHeight="1">
+    <row r="18" spans="1:19" ht="24" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2806,11 +2923,11 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19" ht="13.8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1"/>
@@ -2829,11 +2946,11 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" ht="28.5" customHeight="1">
+    <row r="20" spans="1:19" ht="28.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1"/>
@@ -2852,7 +2969,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
+    <row r="21" spans="1:19" ht="25.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2875,7 +2992,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" ht="41.25" customHeight="1">
+    <row r="22" spans="1:19" ht="41.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2898,7 +3015,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
+    <row r="23" spans="1:19" ht="24.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2921,11 +3038,11 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" ht="17.25" customHeight="1">
+    <row r="24" spans="1:19" ht="17.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2942,11 +3059,11 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" ht="26.25" customHeight="1">
+    <row r="25" spans="1:19" ht="26.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1"/>
@@ -2965,11 +3082,11 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" spans="1:19" ht="25.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="57" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="1"/>
@@ -2988,11 +3105,11 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" ht="24.0" customHeight="1">
+    <row r="27" spans="1:19" ht="24" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3009,11 +3126,11 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" ht="33.75" customHeight="1">
+    <row r="28" spans="1:19" ht="33.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3030,11 +3147,11 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19" ht="13.8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="1"/>
@@ -3053,11 +3170,11 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19" ht="13.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3074,7 +3191,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" ht="13.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3095,7 +3212,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
+    <row r="32" spans="1:19" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3116,7 +3233,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" ht="13.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3137,7 +3254,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" ht="13.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3158,7 +3275,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19" ht="13.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3179,7 +3296,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" ht="13.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3200,7 +3317,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" ht="13.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3221,7 +3338,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" ht="13.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3242,7 +3359,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" ht="13.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3263,7 +3380,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" ht="13.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3284,7 +3401,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19" ht="13.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3305,7 +3422,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19" ht="13.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3326,7 +3443,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19" ht="13.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3347,7 +3464,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19" ht="13.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3368,7 +3485,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19" ht="13.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3389,7 +3506,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19" ht="13.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3410,7 +3527,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19" ht="13.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3431,7 +3548,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19" ht="13.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3452,7 +3569,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19" ht="13.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3473,7 +3590,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19" ht="13.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3494,7 +3611,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19" ht="13.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3520,866 +3637,855 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D26:D28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="59.38"/>
-    <col customWidth="1" min="3" max="3" width="24.13"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
-    <col customWidth="1" min="5" max="5" width="35.38"/>
-    <col customWidth="1" min="6" max="6" width="66.63"/>
-    <col customWidth="1" min="7" max="7" width="63.38"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="221.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="13.2">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" ht="148.5" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="148.5" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" ht="149.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="149.25" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4">
+      <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.4">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.4">
+      <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.4">
+      <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.4">
+      <c r="A10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.4">
+      <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.2">
+      <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.2">
+      <c r="A13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.2">
+      <c r="A14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.2">
+      <c r="A15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" ht="71.25" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="71.25" customHeight="1">
+      <c r="A16" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" ht="72.0" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="72" customHeight="1">
+      <c r="A17" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="69.0" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="69" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="37" t="s">
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.2">
+      <c r="A19" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.13"/>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
-    <col customWidth="1" min="4" max="4" width="22.88"/>
-    <col customWidth="1" min="5" max="5" width="22.75"/>
-    <col customWidth="1" min="6" max="6" width="44.88"/>
-    <col customWidth="1" min="7" max="7" width="56.5"/>
-    <col customWidth="1" min="8" max="8" width="69.88"/>
-    <col customWidth="1" min="9" max="9" width="80.5"/>
-    <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="56.44140625" customWidth="1"/>
+    <col min="8" max="8" width="69.88671875" customWidth="1"/>
+    <col min="9" max="9" width="80.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:10" ht="33" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="48" t="s">
+    <row r="3" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="49" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="30.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="49" t="s">
+    <row r="5" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:10" ht="14.4">
+      <c r="A6" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="56" t="s">
+    <row r="7" spans="1:10" ht="14.4">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="58" t="s">
+    <row r="8" spans="1:10" ht="14.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="58" t="s">
+    <row r="9" spans="1:10" ht="14.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="58" t="s">
+    <row r="10" spans="1:10" ht="14.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="58" t="s">
+    <row r="11" spans="1:10" ht="14.4">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="58" t="s">
+    <row r="12" spans="1:10" ht="21" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:10" ht="13.2">
+      <c r="A13" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" ht="56.25" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="62" t="s">
+    <row r="14" spans="1:10" ht="13.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.2">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4">
+      <c r="A17" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" ht="87.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="68" t="s">
+    <row r="18" spans="1:10" ht="87.75" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+    <row r="19" spans="1:10" ht="14.4">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="G13:G16"/>
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="J13:J16"/>
@@ -4396,7 +4502,22 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J3 J5 J13">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -4404,442 +4525,444 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="G2"/>
-    <hyperlink r:id="rId3" ref="F6"/>
-    <hyperlink r:id="rId4" ref="G6"/>
-    <hyperlink r:id="rId5" ref="F13"/>
-    <hyperlink r:id="rId6" ref="G13"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
-    <col customWidth="1" min="11" max="11" width="40.25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="47"/>
+      <c r="C3" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="75" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="74"/>
-      <c r="C4" s="76" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="74"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="77" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="74"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="74"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="77" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="74"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="77" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="74"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="74"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="74"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="47"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="74"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="74"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="74"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="74"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="74"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="74"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="74"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="74"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="74"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="83" t="s">
+      <c r="E10" s="76"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="47"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="83" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="85" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="87" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="87" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="85" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="87" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="85" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="87" t="s">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="87" t="s">
+      <c r="I18" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="85" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="87" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="85" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="87" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I20" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="85" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="87" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="87" t="s">
+      <c r="I21" s="52" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="85" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="89" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="79" t="s">
+    <row r="23" spans="2:9">
+      <c r="B23" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="89" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="90" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="89" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="80"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="80"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="80"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="80"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="80"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="49"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="49"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="49"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="49"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="49"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="2:9" ht="13.2">
+      <c r="B30" s="49"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AD37B2E4-7AFD-41A6-82F0-EDDAB192088C}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$B$14:$I$24">
-        <sortState ref="B14:I24">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B14:I24" xr:uid="{14E3B7E5-5542-41D8-A3D1-9561533823AA}">
+        <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:I24">
           <sortCondition ref="B14:B24"/>
           <sortCondition ref="H14:H24"/>
         </sortState>
@@ -4847,26 +4970,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
@@ -4878,15 +4981,35 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H24">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H24" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Bloqueante,Crítica,Alta,Baja"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I15:I24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I15:I24" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>